--- a/uploads/test.xlsx
+++ b/uploads/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="1909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1910">
   <si>
     <t xml:space="preserve">姓名	</t>
   </si>
@@ -5839,13 +5839,16 @@
   <si>
     <t>442000198707162055</t>
   </si>
+  <si>
+    <t>身份证</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -6057,31 +6060,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6392,7 +6395,7 @@
   <dimension ref="A1:Y905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C905"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6469,6 +6472,9 @@
       </c>
       <c r="X1" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1909</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
